--- a/ch3-지도맵-통계/행정구역_시군구_별__성별_인구수2.xlsx
+++ b/ch3-지도맵-통계/행정구역_시군구_별__성별_인구수2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="13.0" lowestEdited="13.0" rupBuild="0.1053"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsy37\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0-bigdataVisualiza\ch3-지도맵-통계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="9600"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22755" windowHeight="8190"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="데이터" sheetId="1" r:id="rId4"/>
@@ -22,9 +22,1125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="440">
   <x:si>
+    <x:t>- 2010.7.1 창원시, 마산시, 진해시를 창원시로 통합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 경기도에서 광역시에 편입.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 김포군 검단면이 서구에 편입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">- 95.1.1. 행정구역 개편으로 상당구, 흥덕구 신설 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 미금시와 남양주군이 도농복합형태의 남양주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 순천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 상주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 경주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 구로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 동래구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 당진시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 도봉구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 광양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 영천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 포항시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 광양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 구미시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 여수시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 부산광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 안동시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 영주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 문경시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 김천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 성동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1B040A3&amp;conn_path=I3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별, 성별 인구수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>「주민등록인구현황」, 행정안전부</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[월] 202501~202501  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2010.7.1 창원시, 마산시, 진해시를 통합 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 금천구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 연말기준, 주민등록에 의한 집계, 외국인 제외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 강북구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 연제구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'95.3.1 행정구역 개편으로 연수구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 창원군(내서면)이 회원구에 편입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">- 95년 행정구역 개편으로 달성군이 편입 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 남구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95년 행정구역 개편으로 대구광역시에 편입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">- 95.3.1 행정구역 개편으로 수영구와 분구 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 사상구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 광진구와 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　공주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　천안시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　보은군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　증평군</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">　　　영주시</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">　　　진천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충청남도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　괴산군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　보령시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　음성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영동군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　충주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　장수군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　당진시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　여수시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　옥천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　무주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　고창군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　계룡시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　금산군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　부여군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　익산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　흥덕구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　단양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　아산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　김제시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　전주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동남구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　완주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　논산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　덕진구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　태안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　제천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　홍성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　군산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　순창군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　정읍시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　부안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　예산군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　완산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　청원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　청양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양구군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　의성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　정선군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　상당구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　평창군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　철원군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　화천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　상주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　진안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　고성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　홍천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　청주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　담양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　순천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　인제군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　횡성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　임실군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　남원시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영월군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　구례군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　목포시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충청북도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　장흥군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　의창구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　곡성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　김천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　구미시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　보성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영광군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　안동시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　화순군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　밀양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　통영시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　포항시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영암군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상북도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　경주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　고흥군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　진도군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　해남군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　광양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　고령군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　사천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　장성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　예천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　김해시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　함평군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　완도군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강진군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　무안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　신안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　나주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　함양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　함안군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　울릉군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　창원시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　거창군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　산청군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　성산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　울진군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　창녕군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　진주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영덕군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 조회기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　거제시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　진해구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　의령군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　봉화군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　하동군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영양군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　청송군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서귀포시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　칠곡군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상남도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　남해군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　성주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　청도군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　합천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　성동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 주석</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　금천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　중랑구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 출처</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　제주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　달성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　남구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　옹진군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　광산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　달서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　수영구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　연수구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　수성구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　연제구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동래구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　해운대구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　군위군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강화군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　분당구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동두천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　기장군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　계양구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　유성구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　의정부시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　만안구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세종특별자치시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　수정구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　부평구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　사하구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　상록구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　세종시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　남동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　금정구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　부산진구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　단원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영도구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동안구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　부천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　중원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　평택시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　안산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　원미구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　울주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　장안구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　사상구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　안양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영통구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　구리시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　덕양구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　군포시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　포천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　권선구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　남양주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　연천군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양평군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　일산동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　고양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　대덕구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　일산서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　팔달구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　이천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　화성시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　수원시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　김포시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　여주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　시흥시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　하남시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　소사구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　삼척시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　과천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　안성시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　광명시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　오정구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　성남시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　오산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동해시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　중구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　수지구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　광주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　춘천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　속초시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　가평군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　태백시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　처인구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강릉시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　파주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　의왕시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　원주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　용인시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　문경시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　기흥구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동대문구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　구로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　은평구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서대문구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　관악구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　영등포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　동작구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서초구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　송파구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　노원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강남구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　도봉구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　광진구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　강북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　성북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　마포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　미추홀구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 옹진군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 여주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 달성군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 원미구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 청주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 안성시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 광주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 98.4.1 여천군, 여천시를 통합하여 여수시로 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'95행정구역개편으로 동광양시와 통합하여 광양시로 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 인천광역시에 편입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 계양구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 강화군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 충주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 이천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2013.09.23 여주시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 울주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 서산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 광산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 논산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 공주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 부평구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 제천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 오정구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 기장군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 천안시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 경산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 나주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.28 13:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 용인시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울특별시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　용산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　종로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　경산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 화성시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 진해시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 진주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 통영시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 합포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 소사구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 밀양시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 만안구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 동안구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 미추홀구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 아산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 남양주시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 평택시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 김포시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 사천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 거제시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.7.1일자 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 남구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.1.1일자로 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.7.1일자 폐지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'91년 이전에는 출장소였음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 대천시, 보령군을 폐지하고 도농복합형태의 보령시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 제천시, 제천군을 폐지하고 도농복합형태의 제천시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 97.7.15 울주구(농소읍, 강동면 제외)가 울주군으로 명칭 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 영주시, 영풍군을 통합하여 도농복합형태의 영주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 진주시, 진양군이 통합하여 도농복합형태의 진주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 안동시, 안동군을 통합하여 도농복합형태의 안동시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 밀양시, 밀양군을 통합하여 도농복합형태의 밀양시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.5.10 천안시, 천안군을 폐지하고 도농복합형태의 천안시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 마산시, 창원군이 통합 도농복합형태의 마산시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 영천시, 영천군을 통합하여 도농복합형태의 영천시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">- 95.1.1 김천시, 금릉군을 통합하여 도농복합형태의 김천시 설치 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 구미시, 선산군을 통합하여 도농복합형태의 구미시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 충주시, 중원군을 폐지하고 도농복합형태의 충주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 공주시, 공주군을 폐지하고 도농복합형태의 공주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018.7.1일자로 인천시 남구(28170)에서 인천시 미추홀구(28177)로 명칭변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 나주시, 나주군을 통합하여 도농복합형태의 나주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 경주시, 경주군을 통합 도농복합형태의 경주시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 충무시, 통영군을 통합하여 도농복합형태의 통영시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 창원군(구산면,진동면,진북면,진전면)이 합포구에 편입</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">- 95.1.1 상주시, 상주군을 통합하여 도농복합형태의 상주시 설치 </x:t>
   </x:si>
   <x:si>
@@ -34,1312 +1150,196 @@
     <x:t>- 95.1.1 경산시, 경산군을 통합하여 도농복합형태의 경산시 설치</x:t>
   </x:si>
   <x:si>
-    <x:t>- 95.1.1 창원군(구산면,진동면,진북면,진전면)이 합포구에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영동군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　증평군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충청남도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　충주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　진천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　보은군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　공주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　보령시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　괴산군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　음성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　천안시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　아산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　옥천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　청원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　제천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　단양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　흥덕구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　전주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　완주군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　장수군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　당진시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　논산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　고창군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전라남도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　부여군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　예산군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　태안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　완산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　계룡시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　덕진구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　군산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　김제시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　홍성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　무주군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　순창군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　정읍시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　부안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　여수시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　익산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　금산군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　남원시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　진안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　임실군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　목포시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　순천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북특별자치도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　청양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　인제군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　횡성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　정선군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　고성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영월군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　평창군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충청북도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　상당구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　홍천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　철원군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양구군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　화천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　상주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　청주시</x:t>
+    <x:t>- 95.1.1 서산군, 서산시를 폐지하고 도농복합형태의 서산시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 포항시, 영일군 통합하여 도농복합형태의 포항시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 온양시, 아산군을 폐지하고 도농복합형태의 아산시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 순천시, 승주군을 통합하여 도농복합형태의 순천시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 동광양시, 광양군을 통합하여 도농복합형태의 광양시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 장승포시, 거제군을 통합하여 도농복합형태의 거제시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.5.10 김해시, 김해군을 통합하여 도농복합형태의 김해시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 행정구역 개편으로 북구에서 분구 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　마산합포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DT_1B040A3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　마산회원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 자료다운일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　중구용유출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　장유출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　중구영종출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　풍양출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　송탄출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남자인구수 (명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　화성시동탄출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　양산시웅상출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인구수 (명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여자인구수 (명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　서구검단출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　안중출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　사천남양출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　화성시동부출장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기도</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>소계</x:t>
   </x:si>
   <x:si>
     <x:t>전국</x:t>
   </x:si>
   <x:si>
-    <x:t>통계표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기도</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>- 주민등록법 개정('09.10.2)으로 종전의 무단전출 말소제도를 폐지하고 거주불명 등록제도를 도입함에 따라, 2010년 1월부터 거주불명 등록자를 주민등록자와 같이 인구 통계에 포함하여 공표함</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">- 97.7.15 광역시로 승격(97년 이전 자료는 경남에 포함된 수치임) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 울산군이 울주구에 편입, 97.7.15 울산광역시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.5.10 송탄시,평택시,평택군을 폐지하고 도농복합형태의 평택시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.3.1 양산군(기장읍,장안읍,일광면,정관면,철마면)이 광역시에 편입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연기군, 공주시 일부, 충북 청원군 일부를 통합하여  2012.7.1  신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.5.10 삼천포시, 사천군을 통합하여 도농복합형태의 사천시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(상당구: 93. 94. 동부출장소 /  흥덕구 : 93. 94. 서부출장소) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.4.20 행정구역 개편으로 광산구(서창출장소-서구,대촌출장소-남구)에 분구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 95.1.1 창원시, 창원군(동면,북면,대산면)통합 도농복합형태의 창원시 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 양산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 96.3.1 양산시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 마산시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 보령시</x:t>
   </x:si>
   <x:si>
     <x:t>2006.7.1 제주도에서 명칭변경</x:t>
   </x:si>
   <x:si>
-    <x:t>행정구역(시군구)별 &gt; 양산시</x:t>
-  </x:si>
-  <x:si>
     <x:t>행정구역(시군구)별 &gt; 창원시</x:t>
   </x:si>
   <x:si>
     <x:t>행정구역(시군구)별 &gt; 울산시</x:t>
   </x:si>
   <x:si>
+    <x:t>행정구역(시군구)별 &gt; 김해시</x:t>
+  </x:si>
+  <x:si>
     <x:t>행정구역(시군구)별 &gt; 회원구</x:t>
   </x:si>
   <x:si>
-    <x:t>- 96.3.1 양산시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 마산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 김해시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 사천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 진해시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 진주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 통영시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 거제시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 합포구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 밀양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 동안구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 미추홀구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 만안구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 화성시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 남양주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 평택시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 소사구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 안성시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 옹진군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 청주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 달성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 원미구</x:t>
-  </x:si>
-  <x:si>
     <x:t>행정구역(시군구)별 &gt; 군위군</x:t>
   </x:si>
   <x:si>
-    <x:t>행정구역(시군구)별 &gt; 광주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 김포시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 여주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 광산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 용인시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 오정구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2013.09.23 여주시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 충주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 제천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 계양구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 이천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 천안시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 공주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 부평구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 강화군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 기장군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 울주군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 경산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 서산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 나주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 논산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 아산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 보령시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 당진시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 구미시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 상주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 문경시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 광양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 광양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 포항시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 순천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 경주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 여수시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 김천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 안동시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 영주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 영천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 북구에서 분구 신설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 서산군, 서산시를 폐지하고 도농복합형태의 서산시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 순천시, 승주군을 통합하여 도농복합형태의 순천시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 나주시, 나주군을 통합하여 도농복합형태의 나주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 동광양시, 광양군을 통합하여 도농복합형태의 광양시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 온양시, 아산군을 폐지하고 도농복합형태의 아산시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 포항시, 영일군 통합하여 도농복합형태의 포항시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 경주시, 경주군을 통합 도농복합형태의 경주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 부산광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 성동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 충무시, 통영군을 통합하여 도농복합형태의 통영시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 장승포시, 거제군을 통합하여 도농복합형태의 거제시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.5.10 김해시, 김해군을 통합하여 도농복합형태의 김해시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 밀양시, 밀양군을 통합하여 도농복합형태의 밀양시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 주민등록법 개정('09.10.2)으로 종전의 무단전출 말소제도를 폐지하고 거주불명 등록제도를 도입함에 따라, 2010년 1월부터 거주불명 등록자를 주민등록자와 같이 인구 통계에 포함하여 공표함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 인천광역시에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 98.4.1 여천군, 여천시를 통합하여 여수시로 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'95행정구역개편으로 동광양시와 통합하여 광양시로 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.4.20 행정구역 개편으로 광산구(서창출장소-서구,대촌출장소-남구)에 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(상당구: 93. 94. 동부출장소 /  흥덕구 : 93. 94. 서부출장소) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 창원시, 창원군(동면,북면,대산면)통합 도농복합형태의 창원시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95년 행정구역 개편으로 대구광역시에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 연말기준, 주민등록에 의한 집계, 외국인 제외</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 금천구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 창원군(내서면)이 회원구에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 남구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2010.7.1 창원시, 마산시, 진해시를 통합 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 사상구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">- 95년 행정구역 개편으로 달성군이 편입 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 광진구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 강북구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 연제구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">- 95.3.1 행정구역 개편으로 수영구와 분구 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>'95.3.1 행정구역 개편으로 연수구와 분구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　의성군</x:t>
+    <x:t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 세종특별자치시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 96.3.1 논산군이 논산시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001.3.21 화성군을 화성시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012.1.1 당진군에서 당진시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 96.3.1 용인군을 용인시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 96.3.1 이천군을 이천시로 승격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행정구역(시군구)별 &gt; 제주특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- 98.4.1 안성군을 안성시로 승격</x:t>
   </x:si>
   <x:si>
     <x:t>2001.3.21 광주군을 광주시로 승격</x:t>
   </x:si>
   <x:si>
-    <x:t>2012.1.1 당진군에서 당진시로 승격</x:t>
-  </x:si>
-  <x:si>
     <x:t>- 98.4.1 김포군을 김포시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 제주특별자치도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 96.3.1 논산군이 논산시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2001.3.21 화성군을 화성시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 96.3.1 용인군을 용인시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 96.3.1 이천군을 이천시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 세종특별자치시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 98.4.1 안성군을 안성시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 마산시, 창원군이 통합 도농복합형태의 마산시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">- 95.1.1 김천시, 금릉군을 통합하여 도농복합형태의 김천시 설치 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 구미시, 선산군을 통합하여 도농복합형태의 구미시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 영천시, 영천군을 통합하여 도농복합형태의 영천시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 안동시, 안동군을 통합하여 도농복합형태의 안동시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 영주시, 영풍군을 통합하여 도농복합형태의 영주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 도봉구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 동래구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 97.7.15 울주구(농소읍, 강동면 제외)가 울주군으로 명칭 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 충주시, 중원군을 폐지하고 도농복합형태의 충주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 공주시, 공주군을 폐지하고 도농복합형태의 공주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.5.10 천안시, 천안군을 폐지하고 도농복합형태의 천안시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 제천시, 제천군을 폐지하고 도농복합형태의 제천시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 대천시, 보령군을 폐지하고 도농복합형태의 보령시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.28 13:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 구로구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　마산합포구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　마산회원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DT_1B040A3</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　장유출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　사천남양출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양산시웅상출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 자료다운일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">[월] 202501~202501  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>「주민등록인구현황」, 행정안전부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별, 성별 인구수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인구수 (명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남자인구수 (명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여자인구수 (명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　중구영종출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　중구용유출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서구검단출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　풍양출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　송탄출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　안중출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　화성시동탄출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　화성시동부출장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.7.1일자 폐지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'91년 이전에는 출장소였음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.1.1일자로 신설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.7.1일자 신설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별 &gt; 서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 진주시, 진양군이 통합하여 도농복합형태의 진주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">- 95.1.1. 행정구역 개편으로 상당구, 흥덕구 신설 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 경기도에서 광역시에 편입.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 행정구역 개편으로 김포군 검단면이 서구에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 2010.7.1 창원시, 마산시, 진해시를 창원시로 통합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 미금시와 남양주군이 도농복합형태의 남양주시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1B040A3&amp;conn_path=I3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018.7.1일자로 인천시 남구(28170)에서 인천시 미추홀구(28177)로 명칭변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　담양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　구례군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　곡성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　고흥군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　화순군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강진군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　보성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　장흥군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영암군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　진도군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　무안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　해남군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　장성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　함평군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영광군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　완도군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상북도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　안동시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　포항시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　경주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　김천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　구미시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　신안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　나주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　광양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">- 97.7.15 광역시로 승격(97년 이전 자료는 경남에 포함된 수치임) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.5.10 송탄시,평택시,평택군을 폐지하고 도농복합형태의 평택시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.3.1 양산군(기장읍,장안읍,일광면,정관면,철마면)이 광역시에 편입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연기군, 공주시 일부, 충북 청원군 일부를 통합하여  2012.7.1  신설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.5.10 삼천포시, 사천군을 통합하여 도농복합형태의 사천시 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- 95.1.1 울산군이 울주구에 편입, 97.7.15 울산광역시로 승격</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　고령군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　예천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　의창구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　밀양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　통영시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　사천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　김해시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　거제시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　하동군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　함안군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　의령군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　창녕군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　남해군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　산청군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　함양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　거창군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　칠곡군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영양군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　성주군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　진해구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영덕군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　봉화군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　울릉군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상남도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　창원시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　진주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　청송군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　울진군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　성산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　청도군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 조회기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　합천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서귀포시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　제주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 출처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주특별자치도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 주석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소계</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　금천구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　중랑구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양천구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　성동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동대문구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영등포구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　구로구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　은평구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동작구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　관악구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서초구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서대문구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　송파구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　도봉구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　광진구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　노원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　성북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　마포구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　미추홀구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　달서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동래구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　해운대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　군위군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　연수구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　옹진군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　광산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　연제구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　수영구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　수성구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　달성군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　사상구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영도구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　남동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　부평구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　계양구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강화군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　유성구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　기장군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　사하구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　부산진구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　금정구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　단원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　분당구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　영통구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동안구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　의정부시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　부천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세종특별자치시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　중원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　안양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　평택시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동두천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　만안구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　안산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　원미구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　수정구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　상록구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　울주군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　세종시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　장안구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　덕양구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　오정구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　고양시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　일산동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　대덕구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　일산서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산광역시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　소사구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　팔달구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　수원시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　권선구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　성남시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　광명시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　삼척시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　군포시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　하남시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　구리시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　이천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　화성시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　시흥시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　과천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　안성시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　김포시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　포천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　남양주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　여주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　연천군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　양평군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　강릉시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　수지구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　기흥구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　파주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　태백시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　광주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　가평군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　오산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　의왕시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　처인구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　춘천시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　원주시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원특별자치도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　동해시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　용인시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　속초시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　문경시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　중구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울특별시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　종로구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　용산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　경산시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정구역(시군구)별(2)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1489,8 +1489,406 @@
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
-  <x:dxfs/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
 </x:styleSheet>
 </file>
 
@@ -1809,8 +2207,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E294"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="F8" activeCellId="0" sqref="F8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1820,27 +2218,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="20" customHeight="1">
       <x:c r="A1" t="s">
-        <x:v>438</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>439</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" ht="20" customHeight="1">
       <x:c r="A2" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>141</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C2" s="2">
         <x:v>51207874</x:v>
@@ -1854,10 +2252,10 @@
     </x:row>
     <x:row r="3" spans="1:5" ht="20" customHeight="1">
       <x:c r="A3" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>9330658</x:v>
@@ -1871,10 +2269,10 @@
     </x:row>
     <x:row r="4" spans="1:5" ht="20" customHeight="1">
       <x:c r="A4" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>434</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>138208</x:v>
@@ -1888,10 +2286,10 @@
     </x:row>
     <x:row r="5" spans="1:5" ht="20" customHeight="1">
       <x:c r="A5" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>120325</x:v>
@@ -1905,10 +2303,10 @@
     </x:row>
     <x:row r="6" spans="1:5" ht="20" customHeight="1">
       <x:c r="A6" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>435</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>203727</x:v>
@@ -1922,10 +2320,10 @@
     </x:row>
     <x:row r="7" spans="1:5" ht="20" customHeight="1">
       <x:c r="A7" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>316</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>273549</x:v>
@@ -1939,10 +2337,10 @@
     </x:row>
     <x:row r="8" spans="1:5" ht="20" customHeight="1">
       <x:c r="A8" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>329</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>331589</x:v>
@@ -1956,10 +2354,10 @@
     </x:row>
     <x:row r="9" spans="1:5" ht="20" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>317</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>338822</x:v>
@@ -1973,10 +2371,10 @@
     </x:row>
     <x:row r="10" spans="1:5" ht="20" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>314</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>378971</x:v>
@@ -1990,10 +2388,10 @@
     </x:row>
     <x:row r="11" spans="1:5" ht="20" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>333</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>420710</x:v>
@@ -2007,10 +2405,10 @@
     </x:row>
     <x:row r="12" spans="1:5" ht="20" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>331</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>283293</x:v>
@@ -2024,10 +2422,10 @@
     </x:row>
     <x:row r="13" spans="1:5" ht="20" customHeight="1">
       <x:c r="A13" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>327</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>303057</x:v>
@@ -2041,10 +2439,10 @@
     </x:row>
     <x:row r="14" spans="1:5" ht="20" customHeight="1">
       <x:c r="A14" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>330</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>490307</x:v>
@@ -2058,10 +2456,10 @@
     </x:row>
     <x:row r="15" spans="1:5" ht="20" customHeight="1">
       <x:c r="A15" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>320</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>460738</x:v>
@@ -2075,10 +2473,10 @@
     </x:row>
     <x:row r="16" spans="1:5" ht="20" customHeight="1">
       <x:c r="A16" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>324</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>302297</x:v>
@@ -2092,10 +2490,10 @@
     </x:row>
     <x:row r="17" spans="1:5" ht="20" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>334</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>360981</x:v>
@@ -2109,10 +2507,10 @@
     </x:row>
     <x:row r="18" spans="1:5" ht="20" customHeight="1">
       <x:c r="A18" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>315</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>430618</x:v>
@@ -2126,10 +2524,10 @@
     </x:row>
     <x:row r="19" spans="1:5" ht="20" customHeight="1">
       <x:c r="A19" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>328</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>555518</x:v>
@@ -2143,10 +2541,10 @@
     </x:row>
     <x:row r="20" spans="1:5" ht="20" customHeight="1">
       <x:c r="A20" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>319</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>387510</x:v>
@@ -2160,10 +2558,10 @@
     </x:row>
     <x:row r="21" spans="1:5" ht="20" customHeight="1">
       <x:c r="A21" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>313</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C21" s="2">
         <x:v>224924</x:v>
@@ -2177,10 +2575,10 @@
     </x:row>
     <x:row r="22" spans="1:5" ht="20" customHeight="1">
       <x:c r="A22" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>318</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>373307</x:v>
@@ -2194,10 +2592,10 @@
     </x:row>
     <x:row r="23" spans="1:5" ht="20" customHeight="1">
       <x:c r="A23" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>321</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C23" s="2">
         <x:v>375456</x:v>
@@ -2211,10 +2609,10 @@
     </x:row>
     <x:row r="24" spans="1:5" ht="20" customHeight="1">
       <x:c r="A24" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>322</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C24" s="2">
         <x:v>477940</x:v>
@@ -2228,10 +2626,10 @@
     </x:row>
     <x:row r="25" spans="1:5" ht="20" customHeight="1">
       <x:c r="A25" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>323</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C25" s="2">
         <x:v>408324</x:v>
@@ -2245,10 +2643,10 @@
     </x:row>
     <x:row r="26" spans="1:5" ht="20" customHeight="1">
       <x:c r="A26" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>332</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C26" s="2">
         <x:v>557115</x:v>
@@ -2262,10 +2660,10 @@
     </x:row>
     <x:row r="27" spans="1:5" ht="20" customHeight="1">
       <x:c r="A27" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>325</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C27" s="2">
         <x:v>649071</x:v>
@@ -2279,10 +2677,10 @@
     </x:row>
     <x:row r="28" spans="1:5" ht="20" customHeight="1">
       <x:c r="A28" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>326</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C28" s="2">
         <x:v>484301</x:v>
@@ -2296,10 +2694,10 @@
     </x:row>
     <x:row r="29" spans="1:5" ht="20" customHeight="1">
       <x:c r="A29" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C29" s="2">
         <x:v>3263891</x:v>
@@ -2313,10 +2711,10 @@
     </x:row>
     <x:row r="30" spans="1:5" ht="20" customHeight="1">
       <x:c r="A30" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C30" s="2">
         <x:v>37469</x:v>
@@ -2330,10 +2728,10 @@
     </x:row>
     <x:row r="31" spans="1:5" ht="20" customHeight="1">
       <x:c r="A31" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>336</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C31" s="2">
         <x:v>103065</x:v>
@@ -2347,10 +2745,10 @@
     </x:row>
     <x:row r="32" spans="1:5" ht="20" customHeight="1">
       <x:c r="A32" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C32" s="2">
         <x:v>85857</x:v>
@@ -2364,10 +2762,10 @@
     </x:row>
     <x:row r="33" spans="1:5" ht="20" customHeight="1">
       <x:c r="A33" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>356</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>103503</x:v>
@@ -2381,10 +2779,10 @@
     </x:row>
     <x:row r="34" spans="1:5" ht="20" customHeight="1">
       <x:c r="A34" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>365</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C34" s="2">
         <x:v>359150</x:v>
@@ -2398,10 +2796,10 @@
     </x:row>
     <x:row r="35" spans="1:5" ht="20" customHeight="1">
       <x:c r="A35" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>339</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>274843</x:v>
@@ -2415,10 +2813,10 @@
     </x:row>
     <x:row r="36" spans="1:5" ht="20" customHeight="1">
       <x:c r="A36" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>353</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C36" s="2">
         <x:v>253970</x:v>
@@ -2432,10 +2830,10 @@
     </x:row>
     <x:row r="37" spans="1:5" ht="20" customHeight="1">
       <x:c r="A37" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>337</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C37" s="2">
         <x:v>267287</x:v>
@@ -2449,10 +2847,10 @@
     </x:row>
     <x:row r="38" spans="1:5" ht="20" customHeight="1">
       <x:c r="A38" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>340</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C38" s="2">
         <x:v>376213</x:v>
@@ -2466,10 +2864,10 @@
     </x:row>
     <x:row r="39" spans="1:5" ht="20" customHeight="1">
       <x:c r="A39" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>364</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C39" s="2">
         <x:v>292117</x:v>
@@ -2483,10 +2881,10 @@
     </x:row>
     <x:row r="40" spans="1:5" ht="20" customHeight="1">
       <x:c r="A40" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>366</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C40" s="2">
         <x:v>209326</x:v>
@@ -2500,10 +2898,10 @@
     </x:row>
     <x:row r="41" spans="1:5" ht="20" customHeight="1">
       <x:c r="A41" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>328</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C41" s="2">
         <x:v>142869</x:v>
@@ -2517,10 +2915,10 @@
     </x:row>
     <x:row r="42" spans="1:5" ht="20" customHeight="1">
       <x:c r="A42" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>348</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C42" s="2">
         <x:v>212566</x:v>
@@ -2534,10 +2932,10 @@
     </x:row>
     <x:row r="43" spans="1:5" ht="20" customHeight="1">
       <x:c r="A43" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
-        <x:v>349</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C43" s="2">
         <x:v>171871</x:v>
@@ -2551,10 +2949,10 @@
     </x:row>
     <x:row r="44" spans="1:5" ht="20" customHeight="1">
       <x:c r="A44" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>354</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C44" s="2">
         <x:v>198258</x:v>
@@ -2568,10 +2966,10 @@
     </x:row>
     <x:row r="45" spans="1:5" ht="20" customHeight="1">
       <x:c r="A45" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>363</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C45" s="2">
         <x:v>175527</x:v>
@@ -2585,10 +2983,10 @@
     </x:row>
     <x:row r="46" spans="1:5" ht="20" customHeight="1">
       <x:c r="A46" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C46" s="2">
         <x:v>2363281</x:v>
@@ -2602,10 +3000,10 @@
     </x:row>
     <x:row r="47" spans="1:5" ht="20" customHeight="1">
       <x:c r="A47" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C47" s="2">
         <x:v>98112</x:v>
@@ -2619,10 +3017,10 @@
     </x:row>
     <x:row r="48" spans="1:5" ht="20" customHeight="1">
       <x:c r="A48" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C48" s="2">
         <x:v>342133</x:v>
@@ -2636,10 +3034,10 @@
     </x:row>
     <x:row r="49" spans="1:5" ht="20" customHeight="1">
       <x:c r="A49" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>336</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C49" s="2">
         <x:v>162815</x:v>
@@ -2653,10 +3051,10 @@
     </x:row>
     <x:row r="50" spans="1:5" ht="20" customHeight="1">
       <x:c r="A50" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>353</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C50" s="2">
         <x:v>136642</x:v>
@@ -2670,10 +3068,10 @@
     </x:row>
     <x:row r="51" spans="1:5" ht="20" customHeight="1">
       <x:c r="A51" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>337</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C51" s="2">
         <x:v>412347</x:v>
@@ -2687,10 +3085,10 @@
     </x:row>
     <x:row r="52" spans="1:5" ht="20" customHeight="1">
       <x:c r="A52" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>350</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C52" s="2">
         <x:v>409676</x:v>
@@ -2704,10 +3102,10 @@
     </x:row>
     <x:row r="53" spans="1:5" ht="20" customHeight="1">
       <x:c r="A53" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B53" s="3" t="s">
-        <x:v>338</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C53" s="2">
         <x:v>521673</x:v>
@@ -2721,10 +3119,10 @@
     </x:row>
     <x:row r="54" spans="1:5" ht="20" customHeight="1">
       <x:c r="A54" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
-        <x:v>352</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C54" s="2">
         <x:v>257469</x:v>
@@ -2738,10 +3136,10 @@
     </x:row>
     <x:row r="55" spans="1:5" ht="20" customHeight="1">
       <x:c r="A55" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
-        <x:v>341</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C55" s="2">
         <x:v>22414</x:v>
@@ -2755,10 +3153,10 @@
     </x:row>
     <x:row r="56" spans="1:5" ht="20" customHeight="1">
       <x:c r="A56" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C56" s="2">
         <x:v>3023649</x:v>
@@ -2772,10 +3170,10 @@
     </x:row>
     <x:row r="57" spans="1:5" ht="20" customHeight="1">
       <x:c r="A57" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C57" s="2">
         <x:v>168271</x:v>
@@ -2789,10 +3187,10 @@
     </x:row>
     <x:row r="58" spans="1:5" ht="20" customHeight="1">
       <x:c r="A58" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C58" s="2">
         <x:v>0</x:v>
@@ -2806,10 +3204,10 @@
     </x:row>
     <x:row r="59" spans="1:5" ht="20" customHeight="1">
       <x:c r="A59" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C59" s="2">
         <x:v>0</x:v>
@@ -2823,10 +3221,10 @@
     </x:row>
     <x:row r="60" spans="1:5" ht="20" customHeight="1">
       <x:c r="A60" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C60" s="2">
         <x:v>58162</x:v>
@@ -2840,10 +3238,10 @@
     </x:row>
     <x:row r="61" spans="1:5" ht="20" customHeight="1">
       <x:c r="A61" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>335</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C61" s="2">
         <x:v>412621</x:v>
@@ -2857,10 +3255,10 @@
     </x:row>
     <x:row r="62" spans="1:5" ht="20" customHeight="1">
       <x:c r="A62" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>343</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C62" s="2">
         <x:v>400461</x:v>
@@ -2874,10 +3272,10 @@
     </x:row>
     <x:row r="63" spans="1:5" ht="20" customHeight="1">
       <x:c r="A63" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>357</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C63" s="2">
         <x:v>485702</x:v>
@@ -2891,10 +3289,10 @@
     </x:row>
     <x:row r="64" spans="1:5" ht="20" customHeight="1">
       <x:c r="A64" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>358</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C64" s="2">
         <x:v>493853</x:v>
@@ -2908,10 +3306,10 @@
     </x:row>
     <x:row r="65" spans="1:5" ht="20" customHeight="1">
       <x:c r="A65" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>359</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C65" s="2">
         <x:v>279685</x:v>
@@ -2925,10 +3323,10 @@
     </x:row>
     <x:row r="66" spans="1:5" ht="20" customHeight="1">
       <x:c r="A66" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>336</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C66" s="2">
         <x:v>635553</x:v>
@@ -2942,10 +3340,10 @@
     </x:row>
     <x:row r="67" spans="1:5" ht="20" customHeight="1">
       <x:c r="A67" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C67" s="2">
         <x:v>0</x:v>
@@ -2959,10 +3357,10 @@
     </x:row>
     <x:row r="68" spans="1:5" ht="20" customHeight="1">
       <x:c r="A68" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>360</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C68" s="2">
         <x:v>69439</x:v>
@@ -2976,10 +3374,10 @@
     </x:row>
     <x:row r="69" spans="1:5" ht="20" customHeight="1">
       <x:c r="A69" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B69" s="3" t="s">
-        <x:v>344</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C69" s="2">
         <x:v>19902</x:v>
@@ -2993,10 +3391,10 @@
     </x:row>
     <x:row r="70" spans="1:5" ht="20" customHeight="1">
       <x:c r="A70" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B70" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C70" s="2">
         <x:v>1407097</x:v>
@@ -3010,10 +3408,10 @@
     </x:row>
     <x:row r="71" spans="1:5" ht="20" customHeight="1">
       <x:c r="A71" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B71" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C71" s="2">
         <x:v>105910</x:v>
@@ -3027,10 +3425,10 @@
     </x:row>
     <x:row r="72" spans="1:5" ht="20" customHeight="1">
       <x:c r="A72" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>336</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C72" s="2">
         <x:v>278614</x:v>
@@ -3044,10 +3442,10 @@
     </x:row>
     <x:row r="73" spans="1:5" ht="20" customHeight="1">
       <x:c r="A73" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>353</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C73" s="2">
         <x:v>208004</x:v>
@@ -3061,10 +3459,10 @@
     </x:row>
     <x:row r="74" spans="1:5" ht="20" customHeight="1">
       <x:c r="A74" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>337</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C74" s="2">
         <x:v>423403</x:v>
@@ -3078,10 +3476,10 @@
     </x:row>
     <x:row r="75" spans="1:5" ht="20" customHeight="1">
       <x:c r="A75" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B75" s="3" t="s">
-        <x:v>346</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C75" s="2">
         <x:v>391166</x:v>
@@ -3095,10 +3493,10 @@
     </x:row>
     <x:row r="76" spans="1:5" ht="20" customHeight="1">
       <x:c r="A76" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B76" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C76" s="2">
         <x:v>1438974</x:v>
@@ -3112,10 +3510,10 @@
     </x:row>
     <x:row r="77" spans="1:5" ht="20" customHeight="1">
       <x:c r="A77" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B77" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C77" s="2">
         <x:v>219439</x:v>
@@ -3129,10 +3527,10 @@
     </x:row>
     <x:row r="78" spans="1:5" ht="20" customHeight="1">
       <x:c r="A78" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B78" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C78" s="2">
         <x:v>224881</x:v>
@@ -3146,10 +3544,10 @@
     </x:row>
     <x:row r="79" spans="1:5" ht="20" customHeight="1">
       <x:c r="A79" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B79" s="3" t="s">
-        <x:v>336</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C79" s="2">
         <x:v>457758</x:v>
@@ -3163,10 +3561,10 @@
     </x:row>
     <x:row r="80" spans="1:5" ht="20" customHeight="1">
       <x:c r="A80" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B80" s="3" t="s">
-        <x:v>362</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C80" s="2">
         <x:v>369111</x:v>
@@ -3180,10 +3578,10 @@
     </x:row>
     <x:row r="81" spans="1:5" ht="20" customHeight="1">
       <x:c r="A81" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B81" s="3" t="s">
-        <x:v>390</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C81" s="2">
         <x:v>167785</x:v>
@@ -3197,10 +3595,10 @@
     </x:row>
     <x:row r="82" spans="1:5" ht="20" customHeight="1">
       <x:c r="A82" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C82" s="2">
         <x:v>1097821</x:v>
@@ -3214,10 +3612,10 @@
     </x:row>
     <x:row r="83" spans="1:5" ht="20" customHeight="1">
       <x:c r="A83" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B83" s="3" t="s">
-        <x:v>432</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C83" s="2">
         <x:v>206883</x:v>
@@ -3231,10 +3629,10 @@
     </x:row>
     <x:row r="84" spans="1:5" ht="20" customHeight="1">
       <x:c r="A84" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>353</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C84" s="2">
         <x:v>304922</x:v>
@@ -3248,10 +3646,10 @@
     </x:row>
     <x:row r="85" spans="1:5" ht="20" customHeight="1">
       <x:c r="A85" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B85" s="3" t="s">
-        <x:v>347</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C85" s="2">
         <x:v>150761</x:v>
@@ -3265,10 +3663,10 @@
     </x:row>
     <x:row r="86" spans="1:5" ht="20" customHeight="1">
       <x:c r="A86" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B86" s="3" t="s">
-        <x:v>337</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C86" s="2">
         <x:v>216375</x:v>
@@ -3282,10 +3680,10 @@
     </x:row>
     <x:row r="87" spans="1:5" ht="20" customHeight="1">
       <x:c r="A87" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B87" s="3" t="s">
-        <x:v>383</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C87" s="2">
         <x:v>218880</x:v>
@@ -3299,10 +3697,10 @@
     </x:row>
     <x:row r="88" spans="1:5" ht="20" customHeight="1">
       <x:c r="A88" s="6" t="s">
-        <x:v>373</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B88" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C88" s="2">
         <x:v>390910</x:v>
@@ -3316,10 +3714,10 @@
     </x:row>
     <x:row r="89" spans="1:5" ht="20" customHeight="1">
       <x:c r="A89" s="6" t="s">
-        <x:v>373</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B89" s="3" t="s">
-        <x:v>384</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C89" s="2">
         <x:v>390910</x:v>
@@ -3333,10 +3731,10 @@
     </x:row>
     <x:row r="90" spans="1:5" ht="20" customHeight="1">
       <x:c r="A90" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B90" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C90" s="2">
         <x:v>13699647</x:v>
@@ -3350,10 +3748,10 @@
     </x:row>
     <x:row r="91" spans="1:5" ht="20" customHeight="1">
       <x:c r="A91" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B91" s="3" t="s">
-        <x:v>395</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C91" s="2">
         <x:v>1192256</x:v>
@@ -3367,10 +3765,10 @@
     </x:row>
     <x:row r="92" spans="1:5" ht="20" customHeight="1">
       <x:c r="A92" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>385</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C92" s="2">
         <x:v>274216</x:v>
@@ -3384,10 +3782,10 @@
     </x:row>
     <x:row r="93" spans="1:5" ht="20" customHeight="1">
       <x:c r="A93" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>396</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C93" s="2">
         <x:v>362591</x:v>
@@ -3401,10 +3799,10 @@
     </x:row>
     <x:row r="94" spans="1:5" ht="20" customHeight="1">
       <x:c r="A94" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>394</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C94" s="2">
         <x:v>194389</x:v>
@@ -3418,10 +3816,10 @@
     </x:row>
     <x:row r="95" spans="1:5" ht="20" customHeight="1">
       <x:c r="A95" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>369</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C95" s="2">
         <x:v>361060</x:v>
@@ -3435,10 +3833,10 @@
     </x:row>
     <x:row r="96" spans="1:5" ht="20" customHeight="1">
       <x:c r="A96" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>397</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C96" s="2">
         <x:v>912708</x:v>
@@ -3452,10 +3850,10 @@
     </x:row>
     <x:row r="97" spans="1:5" ht="20" customHeight="1">
       <x:c r="A97" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>381</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C97" s="2">
         <x:v>234721</x:v>
@@ -3469,10 +3867,10 @@
     </x:row>
     <x:row r="98" spans="1:5" ht="20" customHeight="1">
       <x:c r="A98" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>374</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C98" s="2">
         <x:v>206790</x:v>
@@ -3486,10 +3884,10 @@
     </x:row>
     <x:row r="99" spans="1:5" ht="20" customHeight="1">
       <x:c r="A99" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>368</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C99" s="2">
         <x:v>471197</x:v>
@@ -3503,10 +3901,10 @@
     </x:row>
     <x:row r="100" spans="1:5" ht="20" customHeight="1">
       <x:c r="A100" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>371</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C100" s="2">
         <x:v>461142</x:v>
@@ -3520,10 +3918,10 @@
     </x:row>
     <x:row r="101" spans="1:5" ht="20" customHeight="1">
       <x:c r="A101" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>375</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C101" s="2">
         <x:v>557962</x:v>
@@ -3537,10 +3935,10 @@
     </x:row>
     <x:row r="102" spans="1:5" ht="20" customHeight="1">
       <x:c r="A102" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>378</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C102" s="2">
         <x:v>230510</x:v>
@@ -3554,10 +3952,10 @@
     </x:row>
     <x:row r="103" spans="1:5" ht="20" customHeight="1">
       <x:c r="A103" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>370</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C103" s="2">
         <x:v>327452</x:v>
@@ -3571,10 +3969,10 @@
     </x:row>
     <x:row r="104" spans="1:5" ht="20" customHeight="1">
       <x:c r="A104" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>372</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C104" s="2">
         <x:v>769084</x:v>
@@ -3588,10 +3986,10 @@
     </x:row>
     <x:row r="105" spans="1:5" ht="20" customHeight="1">
       <x:c r="A105" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>380</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C105" s="2">
         <x:v>389501</x:v>
@@ -3605,10 +4003,10 @@
     </x:row>
     <x:row r="106" spans="1:5" ht="20" customHeight="1">
       <x:c r="A106" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>393</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C106" s="2">
         <x:v>227754</x:v>
@@ -3622,10 +4020,10 @@
     </x:row>
     <x:row r="107" spans="1:5" ht="20" customHeight="1">
       <x:c r="A107" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>387</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C107" s="2">
         <x:v>151829</x:v>
@@ -3639,10 +4037,10 @@
     </x:row>
     <x:row r="108" spans="1:5" ht="20" customHeight="1">
       <x:c r="A108" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>398</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C108" s="2">
         <x:v>279805</x:v>
@@ -3656,10 +4054,10 @@
     </x:row>
     <x:row r="109" spans="1:5" ht="20" customHeight="1">
       <x:c r="A109" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>376</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C109" s="2">
         <x:v>599138</x:v>
@@ -3673,10 +4071,10 @@
     </x:row>
     <x:row r="110" spans="1:5" ht="20" customHeight="1">
       <x:c r="A110" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C110" s="2">
         <x:v>0</x:v>
@@ -3690,10 +4088,10 @@
     </x:row>
     <x:row r="111" spans="1:5" ht="20" customHeight="1">
       <x:c r="A111" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C111" s="2">
         <x:v>0</x:v>
@@ -3707,10 +4105,10 @@
     </x:row>
     <x:row r="112" spans="1:5" ht="20" customHeight="1">
       <x:c r="A112" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>377</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C112" s="2">
         <x:v>86807</x:v>
@@ -3724,10 +4122,10 @@
     </x:row>
     <x:row r="113" spans="1:5" ht="20" customHeight="1">
       <x:c r="A113" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B113" s="3" t="s">
-        <x:v>379</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C113" s="2">
         <x:v>619381</x:v>
@@ -3741,10 +4139,10 @@
     </x:row>
     <x:row r="114" spans="1:5" ht="20" customHeight="1">
       <x:c r="A114" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B114" s="3" t="s">
-        <x:v>382</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C114" s="2">
         <x:v>326380</x:v>
@@ -3758,10 +4156,10 @@
     </x:row>
     <x:row r="115" spans="1:5" ht="20" customHeight="1">
       <x:c r="A115" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B115" s="3" t="s">
-        <x:v>367</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C115" s="2">
         <x:v>293001</x:v>
@@ -3775,10 +4173,10 @@
     </x:row>
     <x:row r="116" spans="1:5" ht="20" customHeight="1">
       <x:c r="A116" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>388</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C116" s="2">
         <x:v>1069131</x:v>
@@ -3792,10 +4190,10 @@
     </x:row>
     <x:row r="117" spans="1:5" ht="20" customHeight="1">
       <x:c r="A117" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B117" s="3" t="s">
-        <x:v>386</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C117" s="2">
         <x:v>492667</x:v>
@@ -3809,10 +4207,10 @@
     </x:row>
     <x:row r="118" spans="1:5" ht="20" customHeight="1">
       <x:c r="A118" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B118" s="3" t="s">
-        <x:v>389</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C118" s="2">
         <x:v>293813</x:v>
@@ -3826,10 +4224,10 @@
     </x:row>
     <x:row r="119" spans="1:5" ht="20" customHeight="1">
       <x:c r="A119" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B119" s="3" t="s">
-        <x:v>391</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C119" s="2">
         <x:v>282651</x:v>
@@ -3843,10 +4241,10 @@
     </x:row>
     <x:row r="120" spans="1:5" ht="20" customHeight="1">
       <x:c r="A120" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B120" s="3" t="s">
-        <x:v>407</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C120" s="2">
         <x:v>85501</x:v>
@@ -3860,10 +4258,10 @@
     </x:row>
     <x:row r="121" spans="1:5" ht="20" customHeight="1">
       <x:c r="A121" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B121" s="3" t="s">
-        <x:v>403</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C121" s="2">
         <x:v>186868</x:v>
@@ -3877,10 +4275,10 @@
     </x:row>
     <x:row r="122" spans="1:5" ht="20" customHeight="1">
       <x:c r="A122" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B122" s="3" t="s">
-        <x:v>411</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C122" s="2">
         <x:v>732191</x:v>
@@ -3894,10 +4292,10 @@
     </x:row>
     <x:row r="123" spans="1:5" ht="20" customHeight="1">
       <x:c r="A123" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B123" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C123" s="2">
         <x:v>0</x:v>
@@ -3911,10 +4309,10 @@
     </x:row>
     <x:row r="124" spans="1:5" ht="20" customHeight="1">
       <x:c r="A124" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B124" s="3" t="s">
-        <x:v>422</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C124" s="2">
         <x:v>242618</x:v>
@@ -3928,10 +4326,10 @@
     </x:row>
     <x:row r="125" spans="1:5" ht="20" customHeight="1">
       <x:c r="A125" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C125" s="2">
         <x:v>517511</x:v>
@@ -3945,10 +4343,10 @@
     </x:row>
     <x:row r="126" spans="1:5" ht="20" customHeight="1">
       <x:c r="A126" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B126" s="3" t="s">
-        <x:v>400</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C126" s="2">
         <x:v>255533</x:v>
@@ -3962,10 +4360,10 @@
     </x:row>
     <x:row r="127" spans="1:5" ht="20" customHeight="1">
       <x:c r="A127" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C127" s="2">
         <x:v>154351</x:v>
@@ -3979,10 +4377,10 @@
     </x:row>
     <x:row r="128" spans="1:5" ht="20" customHeight="1">
       <x:c r="A128" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>402</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C128" s="2">
         <x:v>328875</x:v>
@@ -3996,10 +4394,10 @@
     </x:row>
     <x:row r="129" spans="1:5" ht="20" customHeight="1">
       <x:c r="A129" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B129" s="3" t="s">
-        <x:v>429</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C129" s="2">
         <x:v>1087144</x:v>
@@ -4013,10 +4411,10 @@
     </x:row>
     <x:row r="130" spans="1:5" ht="20" customHeight="1">
       <x:c r="A130" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>424</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C130" s="2">
         <x:v>275471</x:v>
@@ -4030,10 +4428,10 @@
     </x:row>
     <x:row r="131" spans="1:5" ht="20" customHeight="1">
       <x:c r="A131" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>417</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C131" s="2">
         <x:v>435900</x:v>
@@ -4047,10 +4445,10 @@
     </x:row>
     <x:row r="132" spans="1:5" ht="20" customHeight="1">
       <x:c r="A132" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>416</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C132" s="2">
         <x:v>375773</x:v>
@@ -4064,10 +4462,10 @@
     </x:row>
     <x:row r="133" spans="1:5" ht="20" customHeight="1">
       <x:c r="A133" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B133" s="3" t="s">
-        <x:v>418</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C133" s="2">
         <x:v>513627</x:v>
@@ -4081,10 +4479,10 @@
     </x:row>
     <x:row r="134" spans="1:5" ht="20" customHeight="1">
       <x:c r="A134" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B134" s="3" t="s">
-        <x:v>404</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C134" s="2">
         <x:v>222420</x:v>
@@ -4098,10 +4496,10 @@
     </x:row>
     <x:row r="135" spans="1:5" ht="20" customHeight="1">
       <x:c r="A135" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B135" s="3" t="s">
-        <x:v>408</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C135" s="2">
         <x:v>194007</x:v>
@@ -4115,10 +4513,10 @@
     </x:row>
     <x:row r="136" spans="1:5" ht="20" customHeight="1">
       <x:c r="A136" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B136" s="3" t="s">
-        <x:v>409</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C136" s="2">
         <x:v>486651</x:v>
@@ -4132,10 +4530,10 @@
     </x:row>
     <x:row r="137" spans="1:5" ht="20" customHeight="1">
       <x:c r="A137" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B137" s="3" t="s">
-        <x:v>405</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C137" s="2">
         <x:v>971835</x:v>
@@ -4149,10 +4547,10 @@
     </x:row>
     <x:row r="138" spans="1:5" ht="20" customHeight="1">
       <x:c r="A138" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B138" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C138" s="2">
         <x:v>0</x:v>
@@ -4166,10 +4564,10 @@
     </x:row>
     <x:row r="139" spans="1:5" ht="20" customHeight="1">
       <x:c r="A139" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B139" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C139" s="2">
         <x:v>0</x:v>
@@ -4183,10 +4581,10 @@
     </x:row>
     <x:row r="140" spans="1:5" ht="20" customHeight="1">
       <x:c r="A140" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B140" s="3" t="s">
-        <x:v>420</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C140" s="2">
         <x:v>397410</x:v>
@@ -4200,10 +4598,10 @@
     </x:row>
     <x:row r="141" spans="1:5" ht="20" customHeight="1">
       <x:c r="A141" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B141" s="3" t="s">
-        <x:v>401</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C141" s="2">
         <x:v>289527</x:v>
@@ -4217,10 +4615,10 @@
     </x:row>
     <x:row r="142" spans="1:5" ht="20" customHeight="1">
       <x:c r="A142" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B142" s="3" t="s">
-        <x:v>410</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C142" s="2">
         <x:v>141444</x:v>
@@ -4234,10 +4632,10 @@
     </x:row>
     <x:row r="143" spans="1:5" ht="20" customHeight="1">
       <x:c r="A143" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B143" s="3" t="s">
-        <x:v>412</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C143" s="2">
         <x:v>114562</x:v>
@@ -4251,10 +4649,10 @@
     </x:row>
     <x:row r="144" spans="1:5" ht="20" customHeight="1">
       <x:c r="A144" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B144" s="3" t="s">
-        <x:v>413</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C144" s="2">
         <x:v>40894</x:v>
@@ -4268,10 +4666,10 @@
     </x:row>
     <x:row r="145" spans="1:5" ht="20" customHeight="1">
       <x:c r="A145" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B145" s="3" t="s">
-        <x:v>421</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C145" s="2">
         <x:v>62472</x:v>
@@ -4285,10 +4683,10 @@
     </x:row>
     <x:row r="146" spans="1:5" ht="20" customHeight="1">
       <x:c r="A146" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B146" s="3" t="s">
-        <x:v>414</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C146" s="2">
         <x:v>126792</x:v>
@@ -4302,10 +4700,10 @@
     </x:row>
     <x:row r="147" spans="1:5" ht="20" customHeight="1">
       <x:c r="A147" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B147" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C147" s="2">
         <x:v>1515822</x:v>
@@ -4319,10 +4717,10 @@
     </x:row>
     <x:row r="148" spans="1:5" ht="20" customHeight="1">
       <x:c r="A148" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B148" s="3" t="s">
-        <x:v>425</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C148" s="2">
         <x:v>285864</x:v>
@@ -4336,10 +4734,10 @@
     </x:row>
     <x:row r="149" spans="1:5" ht="20" customHeight="1">
       <x:c r="A149" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B149" s="3" t="s">
-        <x:v>426</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C149" s="2">
         <x:v>362159</x:v>
@@ -4353,10 +4751,10 @@
     </x:row>
     <x:row r="150" spans="1:5" ht="20" customHeight="1">
       <x:c r="A150" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B150" s="3" t="s">
-        <x:v>415</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C150" s="2">
         <x:v>207543</x:v>
@@ -4370,10 +4768,10 @@
     </x:row>
     <x:row r="151" spans="1:5" ht="20" customHeight="1">
       <x:c r="A151" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B151" s="3" t="s">
-        <x:v>428</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C151" s="2">
         <x:v>87571</x:v>
@@ -4387,10 +4785,10 @@
     </x:row>
     <x:row r="152" spans="1:5" ht="20" customHeight="1">
       <x:c r="A152" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B152" s="3" t="s">
-        <x:v>419</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C152" s="2">
         <x:v>37875</x:v>
@@ -4404,10 +4802,10 @@
     </x:row>
     <x:row r="153" spans="1:5" ht="20" customHeight="1">
       <x:c r="A153" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B153" s="3" t="s">
-        <x:v>430</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C153" s="2">
         <x:v>80754</x:v>
@@ -4421,10 +4819,10 @@
     </x:row>
     <x:row r="154" spans="1:5" ht="20" customHeight="1">
       <x:c r="A154" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B154" s="3" t="s">
-        <x:v>399</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C154" s="2">
         <x:v>61464</x:v>
@@ -4438,10 +4836,10 @@
     </x:row>
     <x:row r="155" spans="1:5" ht="20" customHeight="1">
       <x:c r="A155" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B155" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C155" s="2">
         <x:v>66661</x:v>
@@ -4455,10 +4853,10 @@
     </x:row>
     <x:row r="156" spans="1:5" ht="20" customHeight="1">
       <x:c r="A156" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B156" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C156" s="2">
         <x:v>46037</x:v>
@@ -4472,10 +4870,10 @@
     </x:row>
     <x:row r="157" spans="1:5" ht="20" customHeight="1">
       <x:c r="A157" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B157" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C157" s="2">
         <x:v>36603</x:v>
@@ -4489,10 +4887,10 @@
     </x:row>
     <x:row r="158" spans="1:5" ht="20" customHeight="1">
       <x:c r="A158" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B158" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C158" s="2">
         <x:v>40305</x:v>
@@ -4506,10 +4904,10 @@
     </x:row>
     <x:row r="159" spans="1:5" ht="20" customHeight="1">
       <x:c r="A159" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B159" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C159" s="2">
         <x:v>33487</x:v>
@@ -4523,10 +4921,10 @@
     </x:row>
     <x:row r="160" spans="1:5" ht="20" customHeight="1">
       <x:c r="A160" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B160" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C160" s="2">
         <x:v>40408</x:v>
@@ -4540,10 +4938,10 @@
     </x:row>
     <x:row r="161" spans="1:5" ht="20" customHeight="1">
       <x:c r="A161" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B161" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C161" s="2">
         <x:v>22764</x:v>
@@ -4557,10 +4955,10 @@
     </x:row>
     <x:row r="162" spans="1:5" ht="20" customHeight="1">
       <x:c r="A162" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B162" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C162" s="2">
         <x:v>20552</x:v>
@@ -4574,10 +4972,10 @@
     </x:row>
     <x:row r="163" spans="1:5" ht="20" customHeight="1">
       <x:c r="A163" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B163" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C163" s="2">
         <x:v>31385</x:v>
@@ -4591,10 +4989,10 @@
     </x:row>
     <x:row r="164" spans="1:5" ht="20" customHeight="1">
       <x:c r="A164" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B164" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C164" s="2">
         <x:v>26920</x:v>
@@ -4608,10 +5006,10 @@
     </x:row>
     <x:row r="165" spans="1:5" ht="20" customHeight="1">
       <x:c r="A165" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B165" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C165" s="2">
         <x:v>27470</x:v>
@@ -4625,10 +5023,10 @@
     </x:row>
     <x:row r="166" spans="1:5" ht="20" customHeight="1">
       <x:c r="A166" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B166" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C166" s="2">
         <x:v>1590666</x:v>
@@ -4642,10 +5040,10 @@
     </x:row>
     <x:row r="167" spans="1:5" ht="20" customHeight="1">
       <x:c r="A167" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B167" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C167" s="2">
         <x:v>854742</x:v>
@@ -4659,10 +5057,10 @@
     </x:row>
     <x:row r="168" spans="1:5" ht="20" customHeight="1">
       <x:c r="A168" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B168" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C168" s="2">
         <x:v>197879</x:v>
@@ -4676,10 +5074,10 @@
     </x:row>
     <x:row r="169" spans="1:5" ht="20" customHeight="1">
       <x:c r="A169" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B169" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C169" s="2">
         <x:v>181285</x:v>
@@ -4693,10 +5091,10 @@
     </x:row>
     <x:row r="170" spans="1:5" ht="20" customHeight="1">
       <x:c r="A170" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B170" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C170" s="2">
         <x:v>286480</x:v>
@@ -4710,10 +5108,10 @@
     </x:row>
     <x:row r="171" spans="1:5" ht="20" customHeight="1">
       <x:c r="A171" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B171" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C171" s="2">
         <x:v>189098</x:v>
@@ -4727,10 +5125,10 @@
     </x:row>
     <x:row r="172" spans="1:5" ht="20" customHeight="1">
       <x:c r="A172" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B172" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C172" s="2">
         <x:v>207230</x:v>
@@ -4744,10 +5142,10 @@
     </x:row>
     <x:row r="173" spans="1:5" ht="20" customHeight="1">
       <x:c r="A173" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B173" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C173" s="2">
         <x:v>128352</x:v>
@@ -4761,10 +5159,10 @@
     </x:row>
     <x:row r="174" spans="1:5" ht="20" customHeight="1">
       <x:c r="A174" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B174" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C174" s="2">
         <x:v>30494</x:v>
@@ -4778,10 +5176,10 @@
     </x:row>
     <x:row r="175" spans="1:5" ht="20" customHeight="1">
       <x:c r="A175" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B175" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C175" s="2">
         <x:v>48119</x:v>
@@ -4795,10 +5193,10 @@
     </x:row>
     <x:row r="176" spans="1:5" ht="20" customHeight="1">
       <x:c r="A176" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B176" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C176" s="2">
         <x:v>43504</x:v>
@@ -4812,10 +5210,10 @@
     </x:row>
     <x:row r="177" spans="1:5" ht="20" customHeight="1">
       <x:c r="A177" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B177" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C177" s="2">
         <x:v>37160</x:v>
@@ -4829,10 +5227,10 @@
     </x:row>
     <x:row r="178" spans="1:5" ht="20" customHeight="1">
       <x:c r="A178" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B178" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C178" s="2">
         <x:v>86429</x:v>
@@ -4846,10 +5244,10 @@
     </x:row>
     <x:row r="179" spans="1:5" ht="20" customHeight="1">
       <x:c r="A179" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B179" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C179" s="2">
         <x:v>36115</x:v>
@@ -4863,10 +5261,10 @@
     </x:row>
     <x:row r="180" spans="1:5" ht="20" customHeight="1">
       <x:c r="A180" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B180" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C180" s="2">
         <x:v>91228</x:v>
@@ -4880,10 +5278,10 @@
     </x:row>
     <x:row r="181" spans="1:5" ht="20" customHeight="1">
       <x:c r="A181" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B181" s="3" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="B181" s="3" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C181" s="2">
         <x:v>27293</x:v>
@@ -4897,10 +5295,10 @@
     </x:row>
     <x:row r="182" spans="1:5" ht="20" customHeight="1">
       <x:c r="A182" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B182" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C182" s="2">
         <x:v>2135815</x:v>
@@ -4914,10 +5312,10 @@
     </x:row>
     <x:row r="183" spans="1:5" ht="20" customHeight="1">
       <x:c r="A183" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B183" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C183" s="2">
         <x:v>660147</x:v>
@@ -4931,10 +5329,10 @@
     </x:row>
     <x:row r="184" spans="1:5" ht="20" customHeight="1">
       <x:c r="A184" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B184" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C184" s="2">
         <x:v>260787</x:v>
@@ -4948,10 +5346,10 @@
     </x:row>
     <x:row r="185" spans="1:5" ht="20" customHeight="1">
       <x:c r="A185" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B185" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C185" s="2">
         <x:v>399360</x:v>
@@ -4965,10 +5363,10 @@
     </x:row>
     <x:row r="186" spans="1:5" ht="20" customHeight="1">
       <x:c r="A186" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B186" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C186" s="2">
         <x:v>101068</x:v>
@@ -4982,10 +5380,10 @@
     </x:row>
     <x:row r="187" spans="1:5" ht="20" customHeight="1">
       <x:c r="A187" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B187" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C187" s="2">
         <x:v>93575</x:v>
@@ -4999,10 +5397,10 @@
     </x:row>
     <x:row r="188" spans="1:5" ht="20" customHeight="1">
       <x:c r="A188" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B188" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C188" s="2">
         <x:v>355374</x:v>
@@ -5016,10 +5414,10 @@
     </x:row>
     <x:row r="189" spans="1:5" ht="20" customHeight="1">
       <x:c r="A189" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B189" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C189" s="2">
         <x:v>174139</x:v>
@@ -5033,10 +5431,10 @@
     </x:row>
     <x:row r="190" spans="1:5" ht="20" customHeight="1">
       <x:c r="A190" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B190" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C190" s="2">
         <x:v>108302</x:v>
@@ -5050,10 +5448,10 @@
     </x:row>
     <x:row r="191" spans="1:5" ht="20" customHeight="1">
       <x:c r="A191" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B191" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C191" s="2">
         <x:v>46307</x:v>
@@ -5067,10 +5465,10 @@
     </x:row>
     <x:row r="192" spans="1:5" ht="20" customHeight="1">
       <x:c r="A192" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B192" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C192" s="2">
         <x:v>172139</x:v>
@@ -5084,10 +5482,10 @@
     </x:row>
     <x:row r="193" spans="1:5" ht="20" customHeight="1">
       <x:c r="A193" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B193" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C193" s="2">
         <x:v>49442</x:v>
@@ -5101,10 +5499,10 @@
     </x:row>
     <x:row r="194" spans="1:5" ht="20" customHeight="1">
       <x:c r="A194" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B194" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C194" s="2">
         <x:v>59484</x:v>
@@ -5118,10 +5516,10 @@
     </x:row>
     <x:row r="195" spans="1:5" ht="20" customHeight="1">
       <x:c r="A195" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B195" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C195" s="2">
         <x:v>48119</x:v>
@@ -5135,10 +5533,10 @@
     </x:row>
     <x:row r="196" spans="1:5" ht="20" customHeight="1">
       <x:c r="A196" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B196" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C196" s="2">
         <x:v>29551</x:v>
@@ -5152,10 +5550,10 @@
     </x:row>
     <x:row r="197" spans="1:5" ht="20" customHeight="1">
       <x:c r="A197" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B197" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C197" s="2">
         <x:v>99287</x:v>
@@ -5169,10 +5567,10 @@
     </x:row>
     <x:row r="198" spans="1:5" ht="20" customHeight="1">
       <x:c r="A198" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B198" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C198" s="2">
         <x:v>78879</x:v>
@@ -5186,10 +5584,10 @@
     </x:row>
     <x:row r="199" spans="1:5" ht="20" customHeight="1">
       <x:c r="A199" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B199" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C199" s="2">
         <x:v>60002</x:v>
@@ -5203,10 +5601,10 @@
     </x:row>
     <x:row r="200" spans="1:5" ht="20" customHeight="1">
       <x:c r="A200" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B200" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C200" s="2">
         <x:v>1737351</x:v>
@@ -5220,10 +5618,10 @@
     </x:row>
     <x:row r="201" spans="1:5" ht="20" customHeight="1">
       <x:c r="A201" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B201" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C201" s="2">
         <x:v>634548</x:v>
@@ -5237,10 +5635,10 @@
     </x:row>
     <x:row r="202" spans="1:5" ht="20" customHeight="1">
       <x:c r="A202" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B202" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C202" s="2">
         <x:v>321219</x:v>
@@ -5254,10 +5652,10 @@
     </x:row>
     <x:row r="203" spans="1:5" ht="20" customHeight="1">
       <x:c r="A203" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B203" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C203" s="2">
         <x:v>313329</x:v>
@@ -5271,10 +5669,10 @@
     </x:row>
     <x:row r="204" spans="1:5" ht="20" customHeight="1">
       <x:c r="A204" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B204" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C204" s="2">
         <x:v>257832</x:v>
@@ -5288,10 +5686,10 @@
     </x:row>
     <x:row r="205" spans="1:5" ht="20" customHeight="1">
       <x:c r="A205" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B205" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C205" s="2">
         <x:v>267654</x:v>
@@ -5305,10 +5703,10 @@
     </x:row>
     <x:row r="206" spans="1:5" ht="20" customHeight="1">
       <x:c r="A206" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B206" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C206" s="2">
         <x:v>101986</x:v>
@@ -5322,10 +5720,10 @@
     </x:row>
     <x:row r="207" spans="1:5" ht="20" customHeight="1">
       <x:c r="A207" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B207" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C207" s="2">
         <x:v>75604</x:v>
@@ -5339,10 +5737,10 @@
     </x:row>
     <x:row r="208" spans="1:5" ht="20" customHeight="1">
       <x:c r="A208" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B208" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C208" s="2">
         <x:v>80979</x:v>
@@ -5356,10 +5754,10 @@
     </x:row>
     <x:row r="209" spans="1:5" ht="20" customHeight="1">
       <x:c r="A209" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B209" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C209" s="2">
         <x:v>99668</x:v>
@@ -5373,10 +5771,10 @@
     </x:row>
     <x:row r="210" spans="1:5" ht="20" customHeight="1">
       <x:c r="A210" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B210" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C210" s="2">
         <x:v>24217</x:v>
@@ -5390,10 +5788,10 @@
     </x:row>
     <x:row r="211" spans="1:5" ht="20" customHeight="1">
       <x:c r="A211" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B211" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C211" s="2">
         <x:v>23021</x:v>
@@ -5407,10 +5805,10 @@
     </x:row>
     <x:row r="212" spans="1:5" ht="20" customHeight="1">
       <x:c r="A212" s="6" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B212" s="3" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="B212" s="3" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="C212" s="2">
         <x:v>20618</x:v>
@@ -5424,10 +5822,10 @@
     </x:row>
     <x:row r="213" spans="1:5" ht="20" customHeight="1">
       <x:c r="A213" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B213" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C213" s="2">
         <x:v>25578</x:v>
@@ -5441,10 +5839,10 @@
     </x:row>
     <x:row r="214" spans="1:5" ht="20" customHeight="1">
       <x:c r="A214" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B214" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C214" s="2">
         <x:v>26788</x:v>
@@ -5458,10 +5856,10 @@
     </x:row>
     <x:row r="215" spans="1:5" ht="20" customHeight="1">
       <x:c r="A215" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B215" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C215" s="2">
         <x:v>50869</x:v>
@@ -5475,10 +5873,10 @@
     </x:row>
     <x:row r="216" spans="1:5" ht="20" customHeight="1">
       <x:c r="A216" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B216" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C216" s="2">
         <x:v>47989</x:v>
@@ -5492,10 +5890,10 @@
     </x:row>
     <x:row r="217" spans="1:5" ht="20" customHeight="1">
       <x:c r="A217" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B217" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C217" s="2">
         <x:v>1787592</x:v>
@@ -5509,10 +5907,10 @@
     </x:row>
     <x:row r="218" spans="1:5" ht="20" customHeight="1">
       <x:c r="A218" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B218" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C218" s="2">
         <x:v>209289</x:v>
@@ -5526,10 +5924,10 @@
     </x:row>
     <x:row r="219" spans="1:5" ht="20" customHeight="1">
       <x:c r="A219" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B219" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C219" s="2">
         <x:v>267338</x:v>
@@ -5543,10 +5941,10 @@
     </x:row>
     <x:row r="220" spans="1:5" ht="20" customHeight="1">
       <x:c r="A220" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B220" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C220" s="2">
         <x:v>276153</x:v>
@@ -5560,10 +5958,10 @@
     </x:row>
     <x:row r="221" spans="1:5" ht="20" customHeight="1">
       <x:c r="A221" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B221" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C221" s="2">
         <x:v>116710</x:v>
@@ -5577,10 +5975,10 @@
     </x:row>
     <x:row r="222" spans="1:5" ht="20" customHeight="1">
       <x:c r="A222" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B222" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C222" s="2">
         <x:v>154914</x:v>
@@ -5594,10 +5992,10 @@
     </x:row>
     <x:row r="223" spans="1:5" ht="20" customHeight="1">
       <x:c r="A223" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B223" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C223" s="2">
         <x:v>44569</x:v>
@@ -5611,10 +6009,10 @@
     </x:row>
     <x:row r="224" spans="1:5" ht="20" customHeight="1">
       <x:c r="A224" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B224" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C224" s="2">
         <x:v>26548</x:v>
@@ -5628,10 +6026,10 @@
     </x:row>
     <x:row r="225" spans="1:5" ht="20" customHeight="1">
       <x:c r="A225" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B225" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C225" s="2">
         <x:v>24002</x:v>
@@ -5645,10 +6043,10 @@
     </x:row>
     <x:row r="226" spans="1:5" ht="20" customHeight="1">
       <x:c r="A226" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B226" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C226" s="2">
         <x:v>60100</x:v>
@@ -5662,10 +6060,10 @@
     </x:row>
     <x:row r="227" spans="1:5" ht="20" customHeight="1">
       <x:c r="A227" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B227" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C227" s="2">
         <x:v>37149</x:v>
@@ -5679,10 +6077,10 @@
     </x:row>
     <x:row r="228" spans="1:5" ht="20" customHeight="1">
       <x:c r="A228" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B228" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C228" s="2">
         <x:v>60737</x:v>
@@ -5696,10 +6094,10 @@
     </x:row>
     <x:row r="229" spans="1:5" ht="20" customHeight="1">
       <x:c r="A229" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B229" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C229" s="2">
         <x:v>34417</x:v>
@@ -5713,10 +6111,10 @@
     </x:row>
     <x:row r="230" spans="1:5" ht="20" customHeight="1">
       <x:c r="A230" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B230" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C230" s="2">
         <x:v>32169</x:v>
@@ -5730,10 +6128,10 @@
     </x:row>
     <x:row r="231" spans="1:5" ht="20" customHeight="1">
       <x:c r="A231" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B231" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C231" s="2">
         <x:v>63002</x:v>
@@ -5747,10 +6145,10 @@
     </x:row>
     <x:row r="232" spans="1:5" ht="20" customHeight="1">
       <x:c r="A232" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B232" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C232" s="2">
         <x:v>51261</x:v>
@@ -5764,10 +6162,10 @@
     </x:row>
     <x:row r="233" spans="1:5" ht="20" customHeight="1">
       <x:c r="A233" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B233" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C233" s="2">
         <x:v>92927</x:v>
@@ -5781,10 +6179,10 @@
     </x:row>
     <x:row r="234" spans="1:5" ht="20" customHeight="1">
       <x:c r="A234" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B234" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C234" s="2">
         <x:v>29913</x:v>
@@ -5798,10 +6196,10 @@
     </x:row>
     <x:row r="235" spans="1:5" ht="20" customHeight="1">
       <x:c r="A235" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B235" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C235" s="2">
         <x:v>52272</x:v>
@@ -5815,10 +6213,10 @@
     </x:row>
     <x:row r="236" spans="1:5" ht="20" customHeight="1">
       <x:c r="A236" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B236" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C236" s="2">
         <x:v>42024</x:v>
@@ -5832,10 +6230,10 @@
     </x:row>
     <x:row r="237" spans="1:5" ht="20" customHeight="1">
       <x:c r="A237" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B237" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C237" s="2">
         <x:v>45503</x:v>
@@ -5849,10 +6247,10 @@
     </x:row>
     <x:row r="238" spans="1:5" ht="20" customHeight="1">
       <x:c r="A238" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B238" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C238" s="2">
         <x:v>28374</x:v>
@@ -5866,10 +6264,10 @@
     </x:row>
     <x:row r="239" spans="1:5" ht="20" customHeight="1">
       <x:c r="A239" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B239" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C239" s="2">
         <x:v>38221</x:v>
@@ -5883,10 +6281,10 @@
     </x:row>
     <x:row r="240" spans="1:5" ht="20" customHeight="1">
       <x:c r="A240" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B240" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C240" s="2">
         <x:v>2528641</x:v>
@@ -5900,10 +6298,10 @@
     </x:row>
     <x:row r="241" spans="1:5" ht="20" customHeight="1">
       <x:c r="A241" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B241" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C241" s="2">
         <x:v>491439</x:v>
@@ -5917,10 +6315,10 @@
     </x:row>
     <x:row r="242" spans="1:5" ht="20" customHeight="1">
       <x:c r="A242" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B242" s="3" t="s">
-        <x:v>353</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C242" s="2">
         <x:v>219629</x:v>
@@ -5934,10 +6332,10 @@
     </x:row>
     <x:row r="243" spans="1:5" ht="20" customHeight="1">
       <x:c r="A243" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B243" s="3" t="s">
-        <x:v>337</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C243" s="2">
         <x:v>271810</x:v>
@@ -5951,10 +6349,10 @@
     </x:row>
     <x:row r="244" spans="1:5" ht="20" customHeight="1">
       <x:c r="A244" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B244" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C244" s="2">
         <x:v>244589</x:v>
@@ -5968,10 +6366,10 @@
     </x:row>
     <x:row r="245" spans="1:5" ht="20" customHeight="1">
       <x:c r="A245" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B245" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C245" s="2">
         <x:v>135610</x:v>
@@ -5985,10 +6383,10 @@
     </x:row>
     <x:row r="246" spans="1:5" ht="20" customHeight="1">
       <x:c r="A246" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B246" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C246" s="2">
         <x:v>152902</x:v>
@@ -6002,10 +6400,10 @@
     </x:row>
     <x:row r="247" spans="1:5" ht="20" customHeight="1">
       <x:c r="A247" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B247" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C247" s="2">
         <x:v>404395</x:v>
@@ -6019,10 +6417,10 @@
     </x:row>
     <x:row r="248" spans="1:5" ht="20" customHeight="1">
       <x:c r="A248" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B248" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C248" s="2">
         <x:v>98782</x:v>
@@ -6036,10 +6434,10 @@
     </x:row>
     <x:row r="249" spans="1:5" ht="20" customHeight="1">
       <x:c r="A249" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B249" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C249" s="2">
         <x:v>97872</x:v>
@@ -6053,10 +6451,10 @@
     </x:row>
     <x:row r="250" spans="1:5" ht="20" customHeight="1">
       <x:c r="A250" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B250" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C250" s="2">
         <x:v>91784</x:v>
@@ -6070,10 +6468,10 @@
     </x:row>
     <x:row r="251" spans="1:5" ht="20" customHeight="1">
       <x:c r="A251" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B251" s="3" t="s">
-        <x:v>431</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C251" s="2">
         <x:v>67025</x:v>
@@ -6087,10 +6485,10 @@
     </x:row>
     <x:row r="252" spans="1:5" ht="20" customHeight="1">
       <x:c r="A252" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B252" s="3" t="s">
-        <x:v>436</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C252" s="2">
         <x:v>266013</x:v>
@@ -6104,10 +6502,10 @@
     </x:row>
     <x:row r="253" spans="1:5" ht="20" customHeight="1">
       <x:c r="A253" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B253" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C253" s="2">
         <x:v>48620</x:v>
@@ -6121,10 +6519,10 @@
     </x:row>
     <x:row r="254" spans="1:5" ht="20" customHeight="1">
       <x:c r="A254" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B254" s="3" t="s">
-        <x:v>299</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C254" s="2">
         <x:v>23687</x:v>
@@ -6138,10 +6536,10 @@
     </x:row>
     <x:row r="255" spans="1:5" ht="20" customHeight="1">
       <x:c r="A255" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B255" s="3" t="s">
-        <x:v>290</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C255" s="2">
         <x:v>15309</x:v>
@@ -6155,10 +6553,10 @@
     </x:row>
     <x:row r="256" spans="1:5" ht="20" customHeight="1">
       <x:c r="A256" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B256" s="3" t="s">
-        <x:v>293</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C256" s="2">
         <x:v>33123</x:v>
@@ -6172,10 +6570,10 @@
     </x:row>
     <x:row r="257" spans="1:5" ht="20" customHeight="1">
       <x:c r="A257" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B257" s="3" t="s">
-        <x:v>302</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C257" s="2">
         <x:v>40544</x:v>
@@ -6189,10 +6587,10 @@
     </x:row>
     <x:row r="258" spans="1:5" ht="20" customHeight="1">
       <x:c r="A258" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B258" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C258" s="2">
         <x:v>30041</x:v>
@@ -6206,10 +6604,10 @@
     </x:row>
     <x:row r="259" spans="1:5" ht="20" customHeight="1">
       <x:c r="A259" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B259" s="3" t="s">
-        <x:v>291</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C259" s="2">
         <x:v>41396</x:v>
@@ -6223,10 +6621,10 @@
     </x:row>
     <x:row r="260" spans="1:5" ht="20" customHeight="1">
       <x:c r="A260" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B260" s="3" t="s">
-        <x:v>289</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C260" s="2">
         <x:v>107142</x:v>
@@ -6240,10 +6638,10 @@
     </x:row>
     <x:row r="261" spans="1:5" ht="20" customHeight="1">
       <x:c r="A261" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B261" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C261" s="2">
         <x:v>54480</x:v>
@@ -6257,10 +6655,10 @@
     </x:row>
     <x:row r="262" spans="1:5" ht="20" customHeight="1">
       <x:c r="A262" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B262" s="3" t="s">
-        <x:v>294</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C262" s="2">
         <x:v>28719</x:v>
@@ -6274,10 +6672,10 @@
     </x:row>
     <x:row r="263" spans="1:5" ht="20" customHeight="1">
       <x:c r="A263" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B263" s="3" t="s">
-        <x:v>300</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C263" s="2">
         <x:v>46106</x:v>
@@ -6291,10 +6689,10 @@
     </x:row>
     <x:row r="264" spans="1:5" ht="20" customHeight="1">
       <x:c r="A264" s="6" t="s">
-        <x:v>257</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B264" s="3" t="s">
-        <x:v>295</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C264" s="2">
         <x:v>9063</x:v>
@@ -6308,10 +6706,10 @@
     </x:row>
     <x:row r="265" spans="1:5" ht="20" customHeight="1">
       <x:c r="A265" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B265" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C265" s="2">
         <x:v>3226599</x:v>
@@ -6325,10 +6723,10 @@
     </x:row>
     <x:row r="266" spans="1:5" ht="20" customHeight="1">
       <x:c r="A266" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B266" s="3" t="s">
-        <x:v>297</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C266" s="2">
         <x:v>999399</x:v>
@@ -6342,10 +6740,10 @@
     </x:row>
     <x:row r="267" spans="1:5" ht="20" customHeight="1">
       <x:c r="A267" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B267" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C267" s="2">
         <x:v>209732</x:v>
@@ -6359,10 +6757,10 @@
     </x:row>
     <x:row r="268" spans="1:5" ht="20" customHeight="1">
       <x:c r="A268" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B268" s="3" t="s">
-        <x:v>301</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C268" s="2">
         <x:v>244262</x:v>
@@ -6376,10 +6774,10 @@
     </x:row>
     <x:row r="269" spans="1:5" ht="20" customHeight="1">
       <x:c r="A269" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B269" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C269" s="2">
         <x:v>178071</x:v>
@@ -6393,10 +6791,10 @@
     </x:row>
     <x:row r="270" spans="1:5" ht="20" customHeight="1">
       <x:c r="A270" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B270" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C270" s="2">
         <x:v>178806</x:v>
@@ -6410,10 +6808,10 @@
     </x:row>
     <x:row r="271" spans="1:5" ht="20" customHeight="1">
       <x:c r="A271" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B271" s="3" t="s">
-        <x:v>292</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C271" s="2">
         <x:v>188528</x:v>
@@ -6427,10 +6825,10 @@
     </x:row>
     <x:row r="272" spans="1:5" ht="20" customHeight="1">
       <x:c r="A272" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B272" s="3" t="s">
-        <x:v>298</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C272" s="2">
         <x:v>338449</x:v>
@@ -6444,10 +6842,10 @@
     </x:row>
     <x:row r="273" spans="1:5" ht="20" customHeight="1">
       <x:c r="A273" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B273" s="3" t="s">
-        <x:v>276</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C273" s="2">
         <x:v>118250</x:v>
@@ -6461,10 +6859,10 @@
     </x:row>
     <x:row r="274" spans="1:5" ht="20" customHeight="1">
       <x:c r="A274" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B274" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C274" s="2">
         <x:v>108420</x:v>
@@ -6478,10 +6876,10 @@
     </x:row>
     <x:row r="275" spans="1:5" ht="20" customHeight="1">
       <x:c r="A275" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B275" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C275" s="2">
         <x:v>0</x:v>
@@ -6495,10 +6893,10 @@
     </x:row>
     <x:row r="276" spans="1:5" ht="20" customHeight="1">
       <x:c r="A276" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B276" s="3" t="s">
-        <x:v>278</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C276" s="2">
         <x:v>531683</x:v>
@@ -6512,10 +6910,10 @@
     </x:row>
     <x:row r="277" spans="1:5" ht="20" customHeight="1">
       <x:c r="A277" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B277" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C277" s="2">
         <x:v>0</x:v>
@@ -6529,10 +6927,10 @@
     </x:row>
     <x:row r="278" spans="1:5" ht="20" customHeight="1">
       <x:c r="A278" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B278" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C278" s="2">
         <x:v>100544</x:v>
@@ -6546,10 +6944,10 @@
     </x:row>
     <x:row r="279" spans="1:5" ht="20" customHeight="1">
       <x:c r="A279" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B279" s="3" t="s">
-        <x:v>280</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C279" s="2">
         <x:v>232777</x:v>
@@ -6563,10 +6961,10 @@
     </x:row>
     <x:row r="280" spans="1:5" ht="20" customHeight="1">
       <x:c r="A280" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B280" s="3" t="s">
-        <x:v>279</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C280" s="2">
         <x:v>359920</x:v>
@@ -6580,10 +6978,10 @@
     </x:row>
     <x:row r="281" spans="1:5" ht="20" customHeight="1">
       <x:c r="A281" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B281" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C281" s="2">
         <x:v>0</x:v>
@@ -6597,10 +6995,10 @@
     </x:row>
     <x:row r="282" spans="1:5" ht="20" customHeight="1">
       <x:c r="A282" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B282" s="3" t="s">
-        <x:v>283</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C282" s="2">
         <x:v>25094</x:v>
@@ -6614,10 +7012,10 @@
     </x:row>
     <x:row r="283" spans="1:5" ht="20" customHeight="1">
       <x:c r="A283" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B283" s="3" t="s">
-        <x:v>282</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C283" s="2">
         <x:v>58849</x:v>
@@ -6631,10 +7029,10 @@
     </x:row>
     <x:row r="284" spans="1:5" ht="20" customHeight="1">
       <x:c r="A284" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B284" s="3" t="s">
-        <x:v>284</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C284" s="2">
         <x:v>56040</x:v>
@@ -6648,10 +7046,10 @@
     </x:row>
     <x:row r="285" spans="1:5" ht="20" customHeight="1">
       <x:c r="A285" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B285" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C285" s="2">
         <x:v>47913</x:v>
@@ -6665,10 +7063,10 @@
     </x:row>
     <x:row r="286" spans="1:5" ht="20" customHeight="1">
       <x:c r="A286" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B286" s="3" t="s">
-        <x:v>285</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C286" s="2">
         <x:v>39730</x:v>
@@ -6682,10 +7080,10 @@
     </x:row>
     <x:row r="287" spans="1:5" ht="20" customHeight="1">
       <x:c r="A287" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B287" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C287" s="2">
         <x:v>40679</x:v>
@@ -6699,10 +7097,10 @@
     </x:row>
     <x:row r="288" spans="1:5" ht="20" customHeight="1">
       <x:c r="A288" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B288" s="3" t="s">
-        <x:v>286</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C288" s="2">
         <x:v>33203</x:v>
@@ -6716,10 +7114,10 @@
     </x:row>
     <x:row r="289" spans="1:5" ht="20" customHeight="1">
       <x:c r="A289" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B289" s="3" t="s">
-        <x:v>287</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C289" s="2">
         <x:v>36002</x:v>
@@ -6733,10 +7131,10 @@
     </x:row>
     <x:row r="290" spans="1:5" ht="20" customHeight="1">
       <x:c r="A290" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B290" s="3" t="s">
-        <x:v>288</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C290" s="2">
         <x:v>59514</x:v>
@@ -6750,10 +7148,10 @@
     </x:row>
     <x:row r="291" spans="1:5" ht="20" customHeight="1">
       <x:c r="A291" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B291" s="3" t="s">
-        <x:v>305</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C291" s="2">
         <x:v>40133</x:v>
@@ -6767,10 +7165,10 @@
     </x:row>
     <x:row r="292" spans="1:5" ht="20" customHeight="1">
       <x:c r="A292" s="6" t="s">
-        <x:v>310</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B292" t="s">
-        <x:v>312</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C292" s="2">
         <x:v>669460</x:v>
@@ -6784,10 +7182,10 @@
     </x:row>
     <x:row r="293" spans="1:5" ht="20" customHeight="1">
       <x:c r="A293" s="6" t="s">
-        <x:v>310</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B293" s="3" t="s">
-        <x:v>308</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C293" s="2">
         <x:v>487623</x:v>
@@ -6801,10 +7199,10 @@
     </x:row>
     <x:row r="294" spans="1:5" ht="20" customHeight="1">
       <x:c r="A294" s="6" t="s">
-        <x:v>310</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B294" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C294" s="2">
         <x:v>181837</x:v>
@@ -6817,9 +7215,8 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
 </file>
 
@@ -6828,7 +7225,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:B95"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -6836,764 +7233,763 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="5" t="s">
-        <x:v>306</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>208</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="5" t="s">
-        <x:v>304</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>216</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="5" t="s">
-        <x:v>303</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>214</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="5" t="s">
-        <x:v>309</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="5" t="s">
-        <x:v>212</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>202</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="5" t="s">
-        <x:v>213</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>239</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>437</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="5" t="s">
-        <x:v>311</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>156</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="5" t="s">
-        <x:v>193</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="5" t="s">
-        <x:v>203</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>165</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>266</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="5" t="s">
-        <x:v>119</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>268</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>231</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B22" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>240</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
-        <x:v>240</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="5" t="s">
-        <x:v>117</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B25" s="5" t="s">
-        <x:v>142</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B26" s="5" t="s">
-        <x:v>142</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="5" t="s">
-        <x:v>232</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B27" s="5" t="s">
-        <x:v>236</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B28" s="5" t="s">
-        <x:v>235</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B29" s="5" t="s">
-        <x:v>235</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="5" t="s">
-        <x:v>232</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B30" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B31" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B32" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="5" t="s">
-        <x:v>120</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B33" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="5" t="s">
-        <x:v>185</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B34" s="5" t="s">
-        <x:v>269</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B35" s="5" t="s">
-        <x:v>229</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B36" s="5" t="s">
-        <x:v>229</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B37" s="5" t="s">
-        <x:v>230</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B38" s="5" t="s">
-        <x:v>230</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B39" s="5" t="s">
-        <x:v>230</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B40" s="5" t="s">
-        <x:v>267</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B41" s="5" t="s">
-        <x:v>238</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B42" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B43" s="5" t="s">
-        <x:v>184</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B44" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B45" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B46" s="5" t="s">
-        <x:v>182</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B47" s="5" t="s">
-        <x:v>177</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B48" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B49" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B50" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B51" s="5" t="s">
-        <x:v>234</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B52" s="5" t="s">
-        <x:v>161</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B53" s="5" t="s">
-        <x:v>196</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B54" s="5" t="s">
-        <x:v>199</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B55" s="5" t="s">
-        <x:v>198</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B56" s="5" t="s">
-        <x:v>197</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" s="5" t="s">
-        <x:v>126</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B57" s="5" t="s">
-        <x:v>200</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="5" t="s">
-        <x:v>125</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B58" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B59" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" s="5" t="s">
-        <x:v>124</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B60" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" s="5" t="s">
-        <x:v>127</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B61" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" s="5" t="s">
-        <x:v>136</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B62" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" s="5" t="s">
-        <x:v>134</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B63" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" s="5" t="s">
-        <x:v>123</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B64" s="5" t="s">
-        <x:v>145</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" s="5" t="s">
-        <x:v>131</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B65" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" s="5" t="s">
-        <x:v>132</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B66" s="5" t="s">
-        <x:v>159</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" s="5" t="s">
-        <x:v>133</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B67" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" s="5" t="s">
-        <x:v>135</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B68" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B69" s="5" t="s">
-        <x:v>188</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" s="5" t="s">
-        <x:v>138</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B70" s="5" t="s">
-        <x:v>191</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" s="5" t="s">
-        <x:v>128</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B71" s="5" t="s">
-        <x:v>189</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B72" s="5" t="s">
-        <x:v>192</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B73" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" s="5" t="s">
-        <x:v>129</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B74" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" s="5" t="s">
-        <x:v>130</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B75" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B76" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B77" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B78" s="5" t="s">
-        <x:v>228</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B79" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>417</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B80" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B81" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B82" s="5" t="s">
-        <x:v>271</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B83" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B84" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B85" s="5" t="s">
-        <x:v>187</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B86" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B87" s="5" t="s">
-        <x:v>233</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B88" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B89" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B90" s="5" t="s">
-        <x:v>270</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B91" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B92" s="5" t="s">
-        <x:v>155</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B93" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B94" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="5" t="s">
-        <x:v>180</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B95" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
 </file>